--- a/IQBPay/Document/IQBPay.xlsx
+++ b/IQBPay/Document/IQBPay.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\IQB\IQianBa\IQBPay\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKY\Project\IQianBa\IQBPay\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1" xr2:uid="{FC2EC2E2-7D8E-4D5A-8C63-E7453A88C55C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="1" r:id="rId1"/>
     <sheet name="模块界面" sheetId="3" r:id="rId2"/>
     <sheet name="用户分类" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收钱二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余额提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,13 +106,48 @@
   </si>
   <si>
     <t>建议/联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示，参数（pUserID,QRId,）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码设置</t>
+  </si>
+  <si>
+    <t>二维码备注，平台手续费率，代理手续费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增，编辑，删除，列表
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求打款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统全局设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +202,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,36 +522,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3225046-B133-49CE-BEE4-3A53F62D3059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34.58203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -524,97 +563,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4E7984-DABD-47B0-882E-8AD91542507D}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8064F85-FE9F-41EC-A7A4-F839EAD0AAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -622,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
